--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>0.4933382591475555</v>
+        <v>0.5927844617297777</v>
       </c>
       <c r="R2">
-        <v>4.440044332328</v>
+        <v>5.335060155568</v>
       </c>
       <c r="S2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="T2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
         <v>1.019488786223111</v>
@@ -641,10 +641,10 @@
         <v>9.175399076008</v>
       </c>
       <c r="S3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="T3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>0.8835669643875557</v>
+        <v>1.165845296205333</v>
       </c>
       <c r="R4">
-        <v>7.952102679488</v>
+        <v>10.492607665848</v>
       </c>
       <c r="S4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="T4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>0.3848426952871111</v>
+        <v>0.2502294989235556</v>
       </c>
       <c r="R5">
-        <v>3.463584257584</v>
+        <v>2.252065490312</v>
       </c>
       <c r="S5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="T5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>3.160331286806222</v>
+        <v>3.968634041024889</v>
       </c>
       <c r="R6">
-        <v>28.442981581256</v>
+        <v>35.717706369224</v>
       </c>
       <c r="S6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="T6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>1.064454892169778</v>
+        <v>0.7011185526595556</v>
       </c>
       <c r="R7">
-        <v>9.580094029528</v>
+        <v>6.310066973936</v>
       </c>
       <c r="S7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="T7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
     </row>
   </sheetData>
